--- a/biology/Zoologie/Horvathiniinae/Horvathiniinae.xlsx
+++ b/biology/Zoologie/Horvathiniinae/Horvathiniinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Horvathiniinae sont une sous-famille d'insectes hétéroptères (punaises) aquatiques de la famille des Belostomatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de cette sous-famille se caractérisent, au sein des Belostomatidae, par un front fortement courbé, les tibias postérieurs avec une projection postérieure bien visible, et la portion sclérotisée du phallosome s'étendant presque jusqu'à l'apex[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de cette sous-famille se caractérisent, au sein des Belostomatidae, par un front fortement courbé, les tibias postérieurs avec une projection postérieure bien visible, et la portion sclérotisée du phallosome s'étendant presque jusqu'à l'apex.
 La forme de leur corps est ovoïde, aplatie dorso-ventralement et de couleur brune. 
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Horvathinia est un genre du Sud de l'Amérique du Sud, tandis qu’Hydrocyrius et Limnogeton sont des genres africains.
 </t>
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On connaît mal la biologie de ces espèces. Horvathinia pelocoroides est une espèce très rarement observée. Comme tous les Belostomatidae, il s'agit d'espèces prédatrices. Limnogeton se nourrit exclusivement d'escargots aquatiques[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On connaît mal la biologie de ces espèces. Horvathinia pelocoroides est une espèce très rarement observée. Comme tous les Belostomatidae, il s'agit d'espèces prédatrices. Limnogeton se nourrit exclusivement d'escargots aquatiques.
 </t>
         </is>
       </c>
@@ -605,13 +623,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-famille a été proposée par David R. Lauck (d) et Arnold S. Menke (d) en 1961[4] pour classer l'unique genre Horvathinia, surtout sur la base de la forme de ses antennes aux segments expansés, très différentes de celles des autres Belostomidae.
-Dans leur révision de la famille des Belostomatidae de 2018 dans une perspective phylogénétique[5], Ribeiro et al. considèrent qu'Horvathinia est proche des genres Hydrocyrius et Limnogeton, sans toutefois considérer la nécessité de séparer cette sous-famille de celle des Belostomatinae. Schuh et Weirauch (2020) maintiennent la sous-famille en y réunissant les trois genres[2].
-Ainsi définie, la sous-famille contient une dizaine d'espèces : cinq dans le genre Hydrocyrius, quatre dans le genre Limnogeton[3], et une ou deux dans le genre Horvathinia (presque toutes ayant été synonymisées[6]).
-Étymologie
-Le nom de ce taxon est basé sur celui de son genre-type, Horvathinia, lui-même donné en hommage à l'entomologiste et hétéroptériste hongrois Géza Horváth (1847-1937). 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille a été proposée par David R. Lauck (d) et Arnold S. Menke (d) en 1961 pour classer l'unique genre Horvathinia, surtout sur la base de la forme de ses antennes aux segments expansés, très différentes de celles des autres Belostomidae.
+Dans leur révision de la famille des Belostomatidae de 2018 dans une perspective phylogénétique, Ribeiro et al. considèrent qu'Horvathinia est proche des genres Hydrocyrius et Limnogeton, sans toutefois considérer la nécessité de séparer cette sous-famille de celle des Belostomatinae. Schuh et Weirauch (2020) maintiennent la sous-famille en y réunissant les trois genres.
+Ainsi définie, la sous-famille contient une dizaine d'espèces : cinq dans le genre Hydrocyrius, quatre dans le genre Limnogeton, et une ou deux dans le genre Horvathinia (presque toutes ayant été synonymisées).
 </t>
         </is>
       </c>
@@ -637,14 +655,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce taxon est basé sur celui de son genre-type, Horvathinia, lui-même donné en hommage à l'entomologiste et hétéroptériste hongrois Géza Horváth (1847-1937). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Horvathiniinae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horvathiniinae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (23 octobre 2022)[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 octobre 2022) :
 genre Horvathinia Montandon, 1911
-Selon Ribeiro et al. (2018)[5] :
+Selon Ribeiro et al. (2018) :
 genre Horvathinia Montandon, 1911
 genre Hydrocyrius Spinola, 1850
 genre Limnogeton Mayr, 1853
